--- a/Activité.xlsx
+++ b/Activité.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Jour</t>
   </si>
@@ -406,14 +406,15 @@
   <dimension ref="A1:E332"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="45.28515625" customWidth="1"/>
-    <col min="4" max="5" width="34.5703125" customWidth="1"/>
+    <col min="4" max="4" width="37.5703125" customWidth="1"/>
+    <col min="5" max="5" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -484,7 +485,9 @@
       <c r="C5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">

--- a/Activité.xlsx
+++ b/Activité.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Jour</t>
   </si>
@@ -66,6 +66,15 @@
   </si>
   <si>
     <t>Création d'une page de login (ASP .NET)</t>
+  </si>
+  <si>
+    <t>Validation du login</t>
+  </si>
+  <si>
+    <t>Link Json</t>
+  </si>
+  <si>
+    <t>Redirection page</t>
   </si>
 </sst>
 </file>
@@ -406,7 +415,7 @@
   <dimension ref="A1:E332"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,28 +500,48 @@
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="A6" s="1">
+        <v>44106</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="A7" s="1">
+        <v>44107</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="A8" s="1">
+        <v>44108</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="A9" s="1">
+        <v>44109</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
